--- a/Input/Medgulf_Medex/addon.xlsx
+++ b/Input/Medgulf_Medex/addon.xlsx
@@ -382,11 +382,11 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.47"/>
@@ -647,11 +647,11 @@
   </sheetPr>
   <dimension ref="A1:E829"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
@@ -674,7 +674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
@@ -682,7 +682,7 @@
         <v>99</v>
       </c>
       <c r="C2" s="8" t="n">
-        <v>351</v>
+        <v>483.514361379311</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>22</v>
@@ -691,7 +691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>0</v>
       </c>
@@ -699,7 +699,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="8" t="n">
-        <v>319</v>
+        <v>439.558510344828</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>23</v>
@@ -708,7 +708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>0</v>
       </c>
@@ -716,7 +716,7 @@
         <v>99</v>
       </c>
       <c r="C4" s="8" t="n">
-        <v>248</v>
+        <v>342.512782430897</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>24</v>
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>0</v>
       </c>
@@ -733,7 +733,7 @@
         <v>99</v>
       </c>
       <c r="C5" s="8" t="n">
-        <v>174</v>
+        <v>240.443973266489</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>25</v>
@@ -10507,11 +10507,11 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.09"/>
@@ -10773,11 +10773,11 @@
   </sheetPr>
   <dimension ref="A1:E337"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
@@ -10799,7 +10799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>99</v>
       </c>
       <c r="C2" s="8" t="n">
-        <v>297</v>
+        <v>409.655172413793</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>22</v>
@@ -10816,7 +10816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>0</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="8" t="n">
-        <v>267</v>
+        <v>368.689655172414</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>23</v>
@@ -10833,7 +10833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>0</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>99</v>
       </c>
       <c r="C4" s="8" t="n">
-        <v>232</v>
+        <v>319.754482758621</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>24</v>
@@ -10850,7 +10850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>0</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>99</v>
       </c>
       <c r="C5" s="8" t="n">
-        <v>197</v>
+        <v>271.489655172414</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>25</v>
